--- a/v0.7.1/StructureDefinition-CommunicationRequest.xlsx
+++ b/v0.7.1/StructureDefinition-CommunicationRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A request for information to be sent to a receiver</t>
@@ -1465,10 +1469,10 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
@@ -1537,21 +1541,21 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1562,7 +1566,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -1571,19 +1575,19 @@
         <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1633,13 +1637,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>
@@ -1659,10 +1663,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1673,7 +1677,7 @@
         <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1682,16 +1686,16 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1742,19 +1746,19 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -1768,10 +1772,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1782,28 +1786,28 @@
         <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1853,19 +1857,19 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -1879,10 +1883,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1893,7 +1897,7 @@
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>72</v>
@@ -1905,16 +1909,16 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1940,13 +1944,13 @@
         <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>72</v>
@@ -1964,19 +1968,19 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -1990,21 +1994,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -2016,16 +2020,16 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2075,19 +2079,19 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>72</v>
@@ -2096,19 +2100,19 @@
         <v>72</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2127,16 +2131,16 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2186,7 +2190,7 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2207,19 +2211,19 @@
         <v>72</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2238,16 +2242,16 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2297,7 +2301,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2309,7 +2313,7 @@
         <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2318,19 +2322,19 @@
         <v>72</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2343,25 +2347,25 @@
         <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>72</v>
@@ -2410,7 +2414,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2422,7 +2426,7 @@
         <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>72</v>
@@ -2431,15 +2435,15 @@
         <v>72</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2447,7 +2451,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2459,22 +2463,22 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>72</v>
@@ -2523,7 +2527,7 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2535,13 +2539,13 @@
         <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -2549,14 +2553,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2572,20 +2576,20 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>72</v>
@@ -2634,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2646,28 +2650,28 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2683,22 +2687,22 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>72</v>
@@ -2747,7 +2751,7 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2759,35 +2763,35 @@
         <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2796,19 +2800,19 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2858,36 +2862,36 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2895,28 +2899,28 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2943,13 +2947,13 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>72</v>
@@ -2967,25 +2971,25 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>72</v>
@@ -2993,21 +2997,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -3019,16 +3023,16 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3054,10 +3058,10 @@
         <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>72</v>
@@ -3078,36 +3082,36 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3130,16 +3134,16 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3165,13 +3169,13 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -3189,7 +3193,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -3201,13 +3205,13 @@
         <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3215,10 +3219,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3229,7 +3233,7 @@
         <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -3238,16 +3242,16 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3255,7 +3259,7 @@
         <v>72</v>
       </c>
       <c r="Q18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>72</v>
@@ -3276,13 +3280,13 @@
         <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>72</v>
@@ -3300,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -3326,49 +3330,49 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>72</v>
@@ -3413,22 +3417,22 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3439,10 +3443,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3465,13 +3469,13 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3498,13 +3502,13 @@
         <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>72</v>
@@ -3522,7 +3526,7 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3534,7 +3538,7 @@
         <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>72</v>
@@ -3548,21 +3552,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3574,13 +3578,13 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3631,25 +3635,25 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -3657,10 +3661,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3683,16 +3687,16 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3742,7 +3746,7 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3754,13 +3758,13 @@
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -3768,10 +3772,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3782,7 +3786,7 @@
         <v>73</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>72</v>
@@ -3791,19 +3795,19 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3853,25 +3857,25 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>72</v>
@@ -3879,10 +3883,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3905,13 +3909,13 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3962,7 +3966,7 @@
         <v>72</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
@@ -3974,7 +3978,7 @@
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -3988,10 +3992,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4002,7 +4006,7 @@
         <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>72</v>
@@ -4014,13 +4018,13 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4071,13 +4075,13 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>72</v>
@@ -4092,19 +4096,19 @@
         <v>72</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4123,16 +4127,16 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4182,7 +4186,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4194,7 +4198,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4203,19 +4207,19 @@
         <v>72</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4228,25 +4232,25 @@
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>72</v>
@@ -4295,7 +4299,7 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4307,7 +4311,7 @@
         <v>72</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4316,15 +4320,15 @@
         <v>72</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4332,10 +4336,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>72</v>
@@ -4347,13 +4351,13 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4404,22 +4408,22 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>72</v>
@@ -4430,21 +4434,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -4453,16 +4457,16 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4513,25 +4517,25 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>72</v>
@@ -4539,21 +4543,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -4562,16 +4566,16 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4622,25 +4626,25 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>72</v>
@@ -4648,21 +4652,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>72</v>
@@ -4671,16 +4675,16 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4731,36 +4735,36 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4783,13 +4787,13 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4840,7 +4844,7 @@
         <v>72</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4852,13 +4856,13 @@
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -4866,10 +4870,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4880,7 +4884,7 @@
         <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>72</v>
@@ -4889,16 +4893,16 @@
         <v>72</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4949,25 +4953,25 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>72</v>
@@ -4975,10 +4979,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4998,19 +5002,19 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5036,13 +5040,13 @@
         <v>72</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>72</v>
@@ -5060,7 +5064,7 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5072,24 +5076,24 @@
         <v>72</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5109,16 +5113,16 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5169,7 +5173,7 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5181,24 +5185,24 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5221,13 +5225,13 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5278,7 +5282,7 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5290,16 +5294,16 @@
         <v>72</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
